--- a/assets/template/3a4.xlsx
+++ b/assets/template/3a4.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB3B94-4210-456C-984E-F76C03FE6734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11460"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3a4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
@@ -89,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,113 +212,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Daftar Tabel"/>
-      <sheetName val="PS"/>
-      <sheetName val="1-1"/>
-      <sheetName val="1-2"/>
-      <sheetName val="1-3"/>
-      <sheetName val="2a"/>
-      <sheetName val="2b"/>
-      <sheetName val="3a1"/>
-      <sheetName val="3a2"/>
-      <sheetName val="3a3"/>
-      <sheetName val="3a4"/>
-      <sheetName val="3a5"/>
-      <sheetName val="3b1"/>
-      <sheetName val="3b2"/>
-      <sheetName val="3b3"/>
-      <sheetName val="3b4-1"/>
-      <sheetName val="3b4-2"/>
-      <sheetName val="3b5-1"/>
-      <sheetName val="3b5-2"/>
-      <sheetName val="3b5-3"/>
-      <sheetName val="3b5-4"/>
-      <sheetName val="3b6"/>
-      <sheetName val="3b7"/>
-      <sheetName val="4"/>
-      <sheetName val="5a"/>
-      <sheetName val="5b"/>
-      <sheetName val="5c"/>
-      <sheetName val="6a"/>
-      <sheetName val="6b"/>
-      <sheetName val="7"/>
-      <sheetName val="8a"/>
-      <sheetName val="8b1"/>
-      <sheetName val="8b2"/>
-      <sheetName val="8c"/>
-      <sheetName val="8d1"/>
-      <sheetName val="8d2"/>
-      <sheetName val="8e1"/>
-      <sheetName val="Ref 8e2"/>
-      <sheetName val="8e2"/>
-      <sheetName val="8f1-1"/>
-      <sheetName val="8f1-2"/>
-      <sheetName val="8f2"/>
-      <sheetName val="8f3"/>
-      <sheetName val="8f4-1"/>
-      <sheetName val="8f4-2"/>
-      <sheetName val="8f4-3"/>
-      <sheetName val="8f4-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,7 +510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -831,7 +722,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$4:$F$9</formula1>
     </dataValidation>
   </dataValidations>
